--- a/data/education_en.xlsx
+++ b/data/education_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC1DB1-C1EA-4E33-88D6-D17611AFDFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69160C81-3C6B-4DC7-B85F-D999FBF81D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -40,49 +40,49 @@
     <t>PhD - Psychology</t>
   </si>
   <si>
-    <t>University of Stirling</t>
-  </si>
-  <si>
     <t>Stirling, UK</t>
   </si>
   <si>
     <t>MSc in Evolutionary Psychology</t>
   </si>
   <si>
-    <t>University of Liverpool</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Liverpool, UK</t>
   </si>
   <si>
     <t>BA in Music Pedagogy</t>
   </si>
   <si>
-    <t>Universidad Pedagógica Nacional</t>
-  </si>
-  <si>
     <t>Bogota, Colombia</t>
   </si>
   <si>
     <t>Research project: 4.90/5.00</t>
   </si>
   <si>
-    <t>Dissertation Title: "Contextual musicality: vocal modulation and its perception in human social interaction"</t>
-  </si>
-  <si>
     <t>Best overall performance in the MSc</t>
   </si>
   <si>
-    <t>Supervisors: Prof. S. Craig Roberts, and Prof. Anthony C. Little</t>
-  </si>
-  <si>
-    <t>Committee members: Prof. Phyllis C. Lee (dissertation chair), and Prof. Stuart Semple</t>
-  </si>
-  <si>
-    <t>Supervisor: Prof. S. Craig Roberts</t>
-  </si>
-  <si>
     <t>GPA: 4.28/5.00</t>
+  </si>
+  <si>
+    <t>\href{https://www.stir.ac.uk/}{University of Stirling}</t>
+  </si>
+  <si>
+    <t>Dissertation \href{https://dspace.stir.ac.uk/handle/1893/21102}{\textbf{\textit{Contextual musicality: vocal modulation and its perception in human social interaction}}}</t>
+  </si>
+  <si>
+    <t>Supervisors: \href{https://www.scraigroberts.com/}{Prof. S. Craig Roberts} and \href{https://scholar.google.com/citations?user=iDDoxVsAAAAJ}{Prof. Anthony C. Little}</t>
+  </si>
+  <si>
+    <t>Committee members: \href{https://scholar.google.co.uk/citations?user=wxh9svQAAAAJ}{Prof. Phyllis C. Lee} (dissertation chair) and \href{https://scholar.google.com/citations?user=Qo23OGoAAAAJ}{Prof. Stuart Semple}</t>
+  </si>
+  <si>
+    <t>Supervisor: \href{https://www.scraigroberts.com/}{Prof. S. Craig Roberts}</t>
+  </si>
+  <si>
+    <t>\href{https://www.liverpool.ac.uk/}{University of Liverpool}</t>
+  </si>
+  <si>
+    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,15 +929,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -939,92 +945,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2014</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="B5" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2009</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>2006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/education_en.xlsx
+++ b/data/education_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69160C81-3C6B-4DC7-B85F-D999FBF81D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF6F1D-E97A-499F-A277-B32C69BDD06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="2865" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>what</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Bogota, Colombia</t>
   </si>
   <si>
-    <t>Research project: 4.90/5.00</t>
-  </si>
-  <si>
     <t>Best overall performance in the MSc</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>\href{https://www.stir.ac.uk/}{University of Stirling}</t>
   </si>
   <si>
-    <t>Dissertation \href{https://dspace.stir.ac.uk/handle/1893/21102}{\textbf{\textit{Contextual musicality: vocal modulation and its perception in human social interaction}}}</t>
-  </si>
-  <si>
     <t>Supervisors: \href{https://www.scraigroberts.com/}{Prof. S. Craig Roberts} and \href{https://scholar.google.com/citations?user=iDDoxVsAAAAJ}{Prof. Anthony C. Little}</t>
   </si>
   <si>
@@ -83,6 +77,15 @@
   </si>
   <si>
     <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
+  </si>
+  <si>
+    <t>Research project: \href{https://dspace.stir.ac.uk/handle/1893/21102}{\textbf{\textit{Contextual musicality: vocal modulation and its perception in human social interaction}}}</t>
+  </si>
+  <si>
+    <t>Research project: \textbf{\textit{Variation of pitch and loudness range of human voice in response to intra- and inter-sexual stimuli}}</t>
+  </si>
+  <si>
+    <t>Research project: 4.90/5.00 | \href{https://revistas.pedagogica.edu.co/index.php/revistafba/article/view/50}{\textbf{\textit{El origen no humano de la música}}}</t>
   </si>
 </sst>
 </file>
@@ -633,9 +636,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -673,7 +676,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -779,7 +782,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -921,7 +924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -929,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,13 +972,13 @@
         <v>2014</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -984,7 +987,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -993,7 +996,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1004,13 +1007,13 @@
         <v>2009</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,41 +1022,43 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1084,11 +1089,11 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1139,6 +1144,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
